--- a/智保平台/任务清单.xlsx
+++ b/智保平台/任务清单.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>所属模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,77 @@
   </si>
   <si>
     <t>效果图、需求细化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开通阿里帐号，充值。45元/1000次。
+https://market.aliyun.com/products/57000002/cmapi023378.html?spm=5176.730005.productlist.d_cmapi023378.MFtjSE#sku=yuncode1737800002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.预计30左右个页面的开发；
+2.各字体、样式统一等；
+3.做交互、空状态、引导功能的处理；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果图、需求细化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果图、需求细化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索词管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台可设置某段时间内状态可用的搜索词（多于1个）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.后台管理文章时可加入视频链接；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -149,74 +220,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开通阿里帐号，充值。45元/1000次。
-https://market.aliyun.com/products/57000002/cmapi023378.html?spm=5176.730005.productlist.d_cmapi023378.MFtjSE#sku=yuncode1737800002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>V1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.预计30左右个页面的开发；
-2.各字体、样式统一等；
-3.做交互、空状态、引导功能的处理；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果图、需求细化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果图、需求细化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索词管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台可设置某段时间内状态可用的搜索词（多于1个）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.后台管理文章时可加入视频链接；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -648,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.15">
@@ -668,7 +672,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -688,7 +692,7 @@
         <v>26</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -708,7 +712,7 @@
         <v>26</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -722,13 +726,13 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.15">
@@ -748,7 +752,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -759,16 +763,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.15">
@@ -785,10 +789,10 @@
         <v>14</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="119" x14ac:dyDescent="0.15">
@@ -805,10 +809,10 @@
         <v>17</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="136" x14ac:dyDescent="0.15">
@@ -825,10 +829,10 @@
         <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
@@ -846,7 +850,7 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -863,10 +867,10 @@
         <v>22</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.15">
@@ -878,13 +882,13 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="F13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
